--- a/Python/HLHD.xlsx
+++ b/Python/HLHD.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="500">
   <si>
     <t>预期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1460,6 +1460,180 @@
   </si>
   <si>
     <t>"=IF(V62=W62,"P","F")</t>
+  </si>
+  <si>
+    <t>55!55</t>
+  </si>
+  <si>
+    <t>55@55</t>
+  </si>
+  <si>
+    <t>55#55</t>
+  </si>
+  <si>
+    <t>55$55</t>
+  </si>
+  <si>
+    <t>55%55</t>
+  </si>
+  <si>
+    <t>55^55</t>
+  </si>
+  <si>
+    <t>55&amp;55</t>
+  </si>
+  <si>
+    <t>55*55</t>
+  </si>
+  <si>
+    <t>55(55</t>
+  </si>
+  <si>
+    <t>55)55</t>
+  </si>
+  <si>
+    <t>55+55</t>
+  </si>
+  <si>
+    <t>55`55</t>
+  </si>
+  <si>
+    <t>55=55</t>
+  </si>
+  <si>
+    <t>55{55</t>
+  </si>
+  <si>
+    <t>55}55</t>
+  </si>
+  <si>
+    <t>55|55</t>
+  </si>
+  <si>
+    <t>55:55</t>
+  </si>
+  <si>
+    <t>55"55</t>
+  </si>
+  <si>
+    <t>55&lt;55</t>
+  </si>
+  <si>
+    <t>55&gt;55</t>
+  </si>
+  <si>
+    <t>55?55</t>
+  </si>
+  <si>
+    <t>55[55</t>
+  </si>
+  <si>
+    <t>55]55</t>
+  </si>
+  <si>
+    <t>55\55</t>
+  </si>
+  <si>
+    <t>55;55</t>
+  </si>
+  <si>
+    <t>55'55</t>
+  </si>
+  <si>
+    <t>55,55</t>
+  </si>
+  <si>
+    <t>55.55</t>
+  </si>
+  <si>
+    <t>55/55</t>
+  </si>
+  <si>
+    <t>!!!!!</t>
+  </si>
+  <si>
+    <t>@@@@@</t>
+  </si>
+  <si>
+    <t>#####</t>
+  </si>
+  <si>
+    <t>$$$$$</t>
+  </si>
+  <si>
+    <t>%%%%%%</t>
+  </si>
+  <si>
+    <t>^^^^^^</t>
+  </si>
+  <si>
+    <t>&amp;&amp;&amp;&amp;&amp;&amp;</t>
+  </si>
+  <si>
+    <t>*******</t>
+  </si>
+  <si>
+    <t>((((((</t>
+  </si>
+  <si>
+    <t>))))))</t>
+  </si>
+  <si>
+    <t>++++++</t>
+  </si>
+  <si>
+    <t>``````</t>
+  </si>
+  <si>
+    <t>======</t>
+  </si>
+  <si>
+    <t>{{{{{{{</t>
+  </si>
+  <si>
+    <t>}}}}}}</t>
+  </si>
+  <si>
+    <t>|||||||</t>
+  </si>
+  <si>
+    <t>:::::::</t>
+  </si>
+  <si>
+    <t>""""""</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>??????</t>
+  </si>
+  <si>
+    <t>[[[[[[</t>
+  </si>
+  <si>
+    <t>]]]]]]</t>
+  </si>
+  <si>
+    <t>\\\\\\</t>
+  </si>
+  <si>
+    <t>;;;;;;</t>
+  </si>
+  <si>
+    <t>''''''</t>
+  </si>
+  <si>
+    <t>,,,,,,,</t>
+  </si>
+  <si>
+    <t>.......</t>
+  </si>
+  <si>
+    <t>//////</t>
   </si>
 </sst>
 </file>
@@ -1502,7 +1676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1513,6 +1687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1795,9 +1970,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W61" sqref="W61"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2460,7 +2635,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>471</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>50</v>
@@ -2516,7 +2691,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>472</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>50</v>
@@ -2572,7 +2747,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>473</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>50</v>
@@ -2619,7 +2794,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>474</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>50</v>
@@ -2666,7 +2841,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>475</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>50</v>
@@ -2713,7 +2888,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>476</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>50</v>
@@ -2769,7 +2944,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>477</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>50</v>
@@ -2816,7 +2991,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>478</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>50</v>
@@ -2825,7 +3000,7 @@
         <v>131</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>20</v>
+        <v>442</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>51</v>
@@ -2834,7 +3009,7 @@
         <v>175</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>20</v>
+        <v>442</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>51</v>
@@ -2843,7 +3018,7 @@
         <v>236</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>20</v>
+        <v>442</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>51</v>
@@ -2872,7 +3047,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>479</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>50</v>
@@ -2881,7 +3056,7 @@
         <v>132</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>21</v>
+        <v>443</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>51</v>
@@ -2890,7 +3065,7 @@
         <v>176</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>21</v>
+        <v>443</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>51</v>
@@ -2899,7 +3074,7 @@
         <v>237</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>21</v>
+        <v>443</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>51</v>
@@ -2928,7 +3103,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>480</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>50</v>
@@ -2937,7 +3112,7 @@
         <v>133</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>22</v>
+        <v>444</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>51</v>
@@ -2946,7 +3121,7 @@
         <v>177</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>22</v>
+        <v>444</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>51</v>
@@ -2955,7 +3130,7 @@
         <v>238</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>22</v>
+        <v>444</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>51</v>
@@ -2984,7 +3159,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>481</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>50</v>
@@ -2993,7 +3168,7 @@
         <v>134</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>23</v>
+        <v>445</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>51</v>
@@ -3002,7 +3177,7 @@
         <v>178</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>23</v>
+        <v>445</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>51</v>
@@ -3011,7 +3186,7 @@
         <v>239</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>23</v>
+        <v>445</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>51</v>
@@ -3040,7 +3215,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>482</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>50</v>
@@ -3049,7 +3224,7 @@
         <v>135</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>24</v>
+        <v>446</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>51</v>
@@ -3058,7 +3233,7 @@
         <v>179</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>24</v>
+        <v>446</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>51</v>
@@ -3067,7 +3242,7 @@
         <v>240</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>24</v>
+        <v>446</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>51</v>
@@ -3096,7 +3271,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>483</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>50</v>
@@ -3105,7 +3280,7 @@
         <v>136</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>25</v>
+        <v>447</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>51</v>
@@ -3114,7 +3289,7 @@
         <v>180</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>25</v>
+        <v>447</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>51</v>
@@ -3123,7 +3298,7 @@
         <v>241</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>25</v>
+        <v>447</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>51</v>
@@ -3152,7 +3327,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>484</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>50</v>
@@ -3161,7 +3336,7 @@
         <v>137</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>26</v>
+        <v>448</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>51</v>
@@ -3170,7 +3345,7 @@
         <v>181</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>26</v>
+        <v>448</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>51</v>
@@ -3179,7 +3354,7 @@
         <v>242</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>26</v>
+        <v>448</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>51</v>
@@ -3207,8 +3382,8 @@
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>34</v>
+      <c r="A28" s="2" t="s">
+        <v>485</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>50</v>
@@ -3217,7 +3392,7 @@
         <v>138</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>27</v>
+        <v>449</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>51</v>
@@ -3226,7 +3401,7 @@
         <v>182</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>27</v>
+        <v>449</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>51</v>
@@ -3235,7 +3410,7 @@
         <v>243</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>27</v>
+        <v>449</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>51</v>
@@ -3264,7 +3439,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>486</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>50</v>
@@ -3273,7 +3448,7 @@
         <v>139</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>28</v>
+        <v>450</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>51</v>
@@ -3282,7 +3457,7 @@
         <v>183</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>28</v>
+        <v>450</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>51</v>
@@ -3291,7 +3466,7 @@
         <v>244</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>28</v>
+        <v>450</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>51</v>
@@ -3320,7 +3495,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>487</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>50</v>
@@ -3329,7 +3504,7 @@
         <v>140</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>29</v>
+        <v>451</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>51</v>
@@ -3338,7 +3513,7 @@
         <v>184</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>29</v>
+        <v>451</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>51</v>
@@ -3347,7 +3522,7 @@
         <v>245</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>29</v>
+        <v>451</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>51</v>
@@ -3376,7 +3551,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>488</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>50</v>
@@ -3385,7 +3560,7 @@
         <v>141</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>30</v>
+        <v>452</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>51</v>
@@ -3394,7 +3569,7 @@
         <v>185</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>30</v>
+        <v>452</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>51</v>
@@ -3403,7 +3578,7 @@
         <v>246</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>30</v>
+        <v>452</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>51</v>
@@ -3432,7 +3607,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>489</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>50</v>
@@ -3441,7 +3616,7 @@
         <v>142</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>31</v>
+        <v>453</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>51</v>
@@ -3450,7 +3625,7 @@
         <v>186</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>31</v>
+        <v>453</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>51</v>
@@ -3459,7 +3634,7 @@
         <v>247</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>31</v>
+        <v>453</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>51</v>
@@ -3488,7 +3663,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>490</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>50</v>
@@ -3497,7 +3672,7 @@
         <v>143</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>32</v>
+        <v>454</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>51</v>
@@ -3506,7 +3681,7 @@
         <v>187</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>32</v>
+        <v>454</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>51</v>
@@ -3515,7 +3690,7 @@
         <v>248</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>32</v>
+        <v>454</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>51</v>
@@ -3544,7 +3719,7 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>491</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>50</v>
@@ -3553,7 +3728,7 @@
         <v>144</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>33</v>
+        <v>455</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>51</v>
@@ -3562,7 +3737,7 @@
         <v>188</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>33</v>
+        <v>455</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>51</v>
@@ -3571,7 +3746,7 @@
         <v>249</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>33</v>
+        <v>455</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>51</v>
@@ -3600,7 +3775,7 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>492</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>50</v>
@@ -3609,7 +3784,7 @@
         <v>145</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>34</v>
+        <v>456</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>51</v>
@@ -3618,7 +3793,7 @@
         <v>189</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>34</v>
+        <v>456</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>51</v>
@@ -3627,7 +3802,7 @@
         <v>250</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>34</v>
+        <v>456</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>51</v>
@@ -3656,7 +3831,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>493</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>50</v>
@@ -3665,7 +3840,7 @@
         <v>146</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>35</v>
+        <v>457</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>51</v>
@@ -3674,7 +3849,7 @@
         <v>190</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>35</v>
+        <v>457</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>51</v>
@@ -3683,7 +3858,7 @@
         <v>251</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>35</v>
+        <v>457</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>51</v>
@@ -3711,8 +3886,8 @@
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>43</v>
+      <c r="A37" s="4" t="s">
+        <v>494</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>50</v>
@@ -3721,7 +3896,7 @@
         <v>147</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>36</v>
+        <v>458</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>51</v>
@@ -3730,7 +3905,7 @@
         <v>191</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>36</v>
+        <v>458</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>51</v>
@@ -3739,7 +3914,7 @@
         <v>252</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>36</v>
+        <v>458</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>51</v>
@@ -3767,8 +3942,8 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>44</v>
+      <c r="A38" s="4" t="s">
+        <v>495</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>50</v>
@@ -3777,7 +3952,7 @@
         <v>148</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>37</v>
+        <v>459</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>51</v>
@@ -3786,7 +3961,7 @@
         <v>192</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>37</v>
+        <v>459</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>51</v>
@@ -3795,7 +3970,7 @@
         <v>253</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>37</v>
+        <v>459</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>51</v>
@@ -3823,8 +3998,8 @@
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>53</v>
+      <c r="A39" s="1" t="s">
+        <v>496</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>50</v>
@@ -3833,7 +4008,7 @@
         <v>149</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>38</v>
+        <v>460</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>51</v>
@@ -3842,7 +4017,7 @@
         <v>193</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>38</v>
+        <v>460</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>51</v>
@@ -3851,7 +4026,7 @@
         <v>254</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>38</v>
+        <v>460</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>51</v>
@@ -3873,8 +4048,8 @@
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
+      <c r="A40" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>50</v>
@@ -3883,7 +4058,7 @@
         <v>150</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>39</v>
+        <v>461</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>51</v>
@@ -3892,7 +4067,7 @@
         <v>194</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>39</v>
+        <v>461</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>51</v>
@@ -3901,7 +4076,7 @@
         <v>255</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>39</v>
+        <v>461</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>51</v>
@@ -3924,7 +4099,7 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>498</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>50</v>
@@ -3933,7 +4108,7 @@
         <v>151</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>40</v>
+        <v>462</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>51</v>
@@ -3942,7 +4117,7 @@
         <v>195</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>40</v>
+        <v>462</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>51</v>
@@ -3951,7 +4126,7 @@
         <v>256</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>40</v>
+        <v>462</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>51</v>
@@ -3980,7 +4155,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>499</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>50</v>
@@ -3989,7 +4164,7 @@
         <v>152</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>41</v>
+        <v>463</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>51</v>
@@ -3998,7 +4173,7 @@
         <v>196</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>41</v>
+        <v>463</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>51</v>
@@ -4007,7 +4182,7 @@
         <v>257</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>41</v>
+        <v>463</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>51</v>
@@ -4045,7 +4220,7 @@
         <v>153</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>42</v>
+        <v>464</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>51</v>
@@ -4054,7 +4229,7 @@
         <v>197</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>42</v>
+        <v>464</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>51</v>
@@ -4063,7 +4238,7 @@
         <v>258</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>42</v>
+        <v>464</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>51</v>
@@ -4101,7 +4276,7 @@
         <v>154</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>43</v>
+        <v>465</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>51</v>
@@ -4110,7 +4285,7 @@
         <v>198</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>43</v>
+        <v>465</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>51</v>
@@ -4119,7 +4294,7 @@
         <v>259</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>43</v>
+        <v>465</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>51</v>
@@ -4157,7 +4332,7 @@
         <v>155</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>44</v>
+        <v>466</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>51</v>
@@ -4166,7 +4341,7 @@
         <v>199</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>44</v>
+        <v>466</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>51</v>
@@ -4175,7 +4350,7 @@
         <v>260</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>44</v>
+        <v>466</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>51</v>
@@ -4204,7 +4379,7 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E46" s="2" t="s">
-        <v>53</v>
+        <v>467</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>51</v>
@@ -4213,7 +4388,7 @@
         <v>200</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>53</v>
+        <v>467</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>51</v>
@@ -4222,7 +4397,7 @@
         <v>261</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>53</v>
+        <v>467</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>51</v>
@@ -4251,7 +4426,7 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E47" s="1" t="s">
-        <v>45</v>
+        <v>468</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>51</v>
@@ -4260,7 +4435,7 @@
         <v>201</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>45</v>
+        <v>468</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>51</v>
@@ -4269,7 +4444,7 @@
         <v>262</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>45</v>
+        <v>468</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>51</v>
@@ -4298,28 +4473,19 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E48" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>51</v>
+        <v>469</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>202</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>51</v>
+        <v>469</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>263</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>51</v>
+        <v>469</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>324</v>
@@ -4345,7 +4511,7 @@
     </row>
     <row r="49" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E49" s="1" t="s">
-        <v>47</v>
+        <v>470</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>51</v>
@@ -4354,7 +4520,7 @@
         <v>203</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>47</v>
+        <v>470</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>51</v>
@@ -4363,7 +4529,7 @@
         <v>264</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>47</v>
+        <v>470</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>51</v>
